--- a/reference/FRBEDO08/data_comparison_FRBEDO08.xlsx
+++ b/reference/FRBEDO08/data_comparison_FRBEDO08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\reference\FRBEDO08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56294BF0-A7F4-430A-8C2B-B808C36AC5C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4727D-4542-48F6-9D83-CDB45C22A777}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2730" windowWidth="26310" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -241,6 +248,17 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +542,7 @@
   <dimension ref="A1:AI180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,37 +572,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
@@ -617,37 +635,37 @@
       <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -20477,5 +20495,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>